--- a/Resource/excel/item.xlsx
+++ b/Resource/excel/item.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangpeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="26175" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -25,14 +20,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zongtonggui:</t>
@@ -41,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0">
+    <comment ref="B2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -68,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,14 +72,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -97,7 +87,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,14 +95,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -122,7 +110,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -132,14 +119,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
@@ -150,14 +136,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="L2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -166,7 +151,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,14 +160,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -192,7 +175,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -207,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>Id</t>
   </si>
@@ -326,110 +308,92 @@
     <t>铜钱卡</t>
   </si>
   <si>
+    <t>可以兑换铜钱*1000</t>
+  </si>
+  <si>
+    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_04.ST_supplement_Mall_commodity_icon_04</t>
+  </si>
+  <si>
+    <t>[{"money":{"money":"1000"}}]</t>
+  </si>
+  <si>
+    <t>任务道具</t>
+  </si>
+  <si>
+    <t>可完成XX任务</t>
+  </si>
+  <si>
+    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Hall_icon_message_selected.ST_supplement_Hall_icon_message_selected</t>
+  </si>
+  <si>
     <t>张小贱礼盒</t>
   </si>
   <si>
-    <t>可以兑换铜钱*1000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>可完成XX任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>可开出奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_08.ST_supplement_Mall_commodity_icon_08</t>
+  </si>
+  <si>
+    <t>[{"clothes":{"id":"20001"|"count":"1"}}|{"money":{"money":"9999"}}]</t>
   </si>
   <si>
     <t>杨四龙的刀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>很厉害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_dj_hw02.ST_tticon_icon_dj_hw02</t>
   </si>
   <si>
     <t>龙少的剑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>很厉害呀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_dj_khbd.ST_tticon_icon_dj_khbd</t>
   </si>
   <si>
     <t>龙哥的长枪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"money":{"money":"1000"}}]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>很厉害呀呀</t>
+  </si>
+  <si>
+    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_dj_mb.ST_tticon_icon_dj_mb</t>
   </si>
   <si>
     <t>礼包放大版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_06.ST_supplement_Mall_commodity_icon_06</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"1"|"count":"1"}}|{"clothes":{"id":"20003"|"count":"1"}}|{"diamond":{"diamond":"999"}}]</t>
   </si>
   <si>
     <t>礼包缩小版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>很厉害呀呀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>很厉害呀呀</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>很厉害呀呀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_07.ST_supplement_Mall_commodity_icon_07</t>
   </si>
   <si>
     <t>[{"item":{"id":"4"|"count":"1"}}|{"item":{"id":"5"|"count":"1"}}|{"money":{"money":"10001"}}]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_04.ST_supplement_Mall_commodity_icon_04</t>
-  </si>
-  <si>
-    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Hall_icon_message_selected.ST_supplement_Hall_icon_message_selected</t>
-  </si>
-  <si>
-    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_08.ST_supplement_Mall_commodity_icon_08</t>
-  </si>
-  <si>
-    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_dj_hw02.ST_tticon_icon_dj_hw02</t>
-  </si>
-  <si>
-    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_dj_khbd.ST_tticon_icon_dj_khbd</t>
-  </si>
-  <si>
-    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_dj_mb.ST_tticon_icon_dj_mb</t>
-  </si>
-  <si>
-    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_06.ST_supplement_Mall_commodity_icon_06</t>
-  </si>
-  <si>
-    <t>/Game/Art/Image/Hallsupplement/Frames/ST_supplement_Mall_commodity_icon_07.ST_supplement_Mall_commodity_icon_07</t>
-  </si>
-  <si>
-    <t>[{"clothes":{"id":"20001"|"count":"1"}}|{"money":{"money":"9999"}}]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"item":{"id":"1"|"count":"1"}}|{"clothes":{"id":"20003"|"count":"1"}}|{"diamond":{"diamond":"999"}}]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,53 +405,167 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,12 +604,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -565,9 +829,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -586,33 +1092,77 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -870,515 +1420,506 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="23.625" customWidth="1"/>
-    <col min="12" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="62.875" customWidth="1"/>
-    <col min="16" max="16" width="135.625" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="19.25" customWidth="1"/>
-    <col min="19" max="19" width="21.375" customWidth="1"/>
-    <col min="20" max="20" width="41.875" customWidth="1"/>
+    <col min="1" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="62.875" customWidth="1"/>
+    <col min="15" max="15" width="135.625" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="17" max="17" width="19.25" customWidth="1"/>
+    <col min="18" max="18" width="21.375" customWidth="1"/>
+    <col min="19" max="19" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:21">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="6:15">
+      <c r="F3" s="2"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="6">
+        <v>101</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="6">
+        <v>101</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" s="6">
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8" s="6">
+        <v>101</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B9" s="6">
+        <v>101</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B10" s="6">
+        <v>101</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="B11" s="6">
+        <v>101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="2"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>101</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>10</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>101</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>101</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>10</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8">
-        <v>101</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8">
-        <v>101</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>101</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>101</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>10</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8">
-        <v>101</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
         <v>63</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>10</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>